--- a/results.xlsx
+++ b/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Lucas\dev\gen-ai-brazilian-finance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E77FC348-A753-48CB-A038-1BFFCF65E5D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AC5742A-C305-4FA1-A9F2-81A54495594E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{3A20F2FE-DCF6-430F-B88B-FA71673E3703}"/>
   </bookViews>
@@ -80,9 +80,6 @@
     <t>Utilizou arrays mas não escreveu da forma mais eficiente</t>
   </si>
   <si>
-    <t>Usou algoritmos eficientes</t>
-  </si>
-  <si>
     <t>Utilizou arrays, não deixou números hardcoded nos loops, dividiu em funções. Declaração de variáveis confusa</t>
   </si>
   <si>
@@ -104,9 +101,6 @@
     <t>Gestão de erros</t>
   </si>
   <si>
-    <t>Surpreendeu positivamente em algum aspecto</t>
-  </si>
-  <si>
     <t>Não conseguiu fazer o scrape, mas fez um try-except com uma taxa fixa</t>
   </si>
   <si>
@@ -119,9 +113,6 @@
     <t>Erro no scraper, tentou um try catch mas não deu certo</t>
   </si>
   <si>
-    <t>Comentários e prints úteis</t>
-  </si>
-  <si>
     <t>Conseguiu fazer o scrape via uma API</t>
   </si>
   <si>
@@ -161,9 +152,6 @@
     <t>Peso</t>
   </si>
   <si>
-    <t>Bem organizado em funções/classes</t>
-  </si>
-  <si>
     <t>Puxou via yfinance, erro no fit. Comentários detalhados</t>
   </si>
   <si>
@@ -213,6 +201,18 @@
   </si>
   <si>
     <t>Modelo</t>
+  </si>
+  <si>
+    <t>Comentários e outputs úteis</t>
+  </si>
+  <si>
+    <t>Organização e divisão do código</t>
+  </si>
+  <si>
+    <t>Eficiência dos algoritmos</t>
+  </si>
+  <si>
+    <t>Surpresas positivas</t>
   </si>
 </sst>
 </file>
@@ -672,8 +672,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B1:K58"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A28" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42:I42"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A29" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="J40" sqref="J40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -681,75 +681,75 @@
     <col min="1" max="1" width="3.5703125" customWidth="1"/>
     <col min="2" max="2" width="22.85546875" customWidth="1"/>
     <col min="3" max="3" width="18.42578125" customWidth="1"/>
-    <col min="4" max="9" width="15.7109375" customWidth="1"/>
+    <col min="4" max="9" width="15" customWidth="1"/>
     <col min="10" max="10" width="17.28515625" customWidth="1"/>
     <col min="11" max="11" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B1" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" t="s">
         <v>30</v>
-      </c>
-      <c r="C4" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="2:11" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="B9" s="8" t="s">
         <v>1</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="K9" s="1" t="s">
         <v>4</v>
@@ -757,7 +757,7 @@
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C10" t="s">
         <v>3</v>
@@ -781,16 +781,16 @@
         <v>1</v>
       </c>
       <c r="J10" s="3">
-        <f>SUMPRODUCT(D10:I10,$D$43:$I$43)</f>
+        <f t="shared" ref="J10:J37" si="0">SUMPRODUCT(D10:I10,$D$43:$I$43)</f>
         <v>2.1000000000000005</v>
       </c>
       <c r="K10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C11" t="s">
         <v>10</v>
@@ -814,7 +814,7 @@
         <v>1</v>
       </c>
       <c r="J11" s="3">
-        <f>SUMPRODUCT(D11:I11,$D$43:$I$43)</f>
+        <f t="shared" si="0"/>
         <v>2.0000000000000004</v>
       </c>
       <c r="K11" t="s">
@@ -823,7 +823,7 @@
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
@@ -847,16 +847,16 @@
         <v>2</v>
       </c>
       <c r="J12" s="3">
-        <f>SUMPRODUCT(D12:I12,$D$43:$I$43)</f>
+        <f t="shared" si="0"/>
         <v>2.8</v>
       </c>
       <c r="K12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C13" t="s">
         <v>9</v>
@@ -880,7 +880,7 @@
         <v>1</v>
       </c>
       <c r="J13" s="3">
-        <f>SUMPRODUCT(D13:I13,$D$43:$I$43)</f>
+        <f t="shared" si="0"/>
         <v>2.3000000000000003</v>
       </c>
       <c r="K13" t="s">
@@ -889,7 +889,7 @@
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C14" t="s">
         <v>2</v>
@@ -913,7 +913,7 @@
         <v>1</v>
       </c>
       <c r="J14" s="3">
-        <f>SUMPRODUCT(D14:I14,$D$43:$I$43)</f>
+        <f t="shared" si="0"/>
         <v>2.0000000000000004</v>
       </c>
       <c r="K14" t="s">
@@ -922,7 +922,7 @@
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C15" t="s">
         <v>8</v>
@@ -946,7 +946,7 @@
         <v>1</v>
       </c>
       <c r="J15" s="3">
-        <f>SUMPRODUCT(D15:I15,$D$43:$I$43)</f>
+        <f t="shared" si="0"/>
         <v>2.2000000000000002</v>
       </c>
       <c r="K15" t="s">
@@ -955,7 +955,7 @@
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C16" t="s">
         <v>7</v>
@@ -979,16 +979,16 @@
         <v>2</v>
       </c>
       <c r="J16" s="3">
-        <f>SUMPRODUCT(D16:I16,$D$43:$I$43)</f>
+        <f t="shared" si="0"/>
         <v>2.1</v>
       </c>
       <c r="K16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
         <v>3</v>
@@ -1012,16 +1012,16 @@
         <v>3</v>
       </c>
       <c r="J17" s="3">
-        <f>SUMPRODUCT(D17:I17,$D$43:$I$43)</f>
+        <f t="shared" si="0"/>
         <v>2.2000000000000002</v>
       </c>
       <c r="K17" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
         <v>10</v>
@@ -1045,16 +1045,16 @@
         <v>1</v>
       </c>
       <c r="J18" s="3">
-        <f>SUMPRODUCT(D18:I18,$D$43:$I$43)</f>
+        <f t="shared" si="0"/>
         <v>1.2</v>
       </c>
       <c r="K18" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C19" t="s">
         <v>5</v>
@@ -1078,16 +1078,16 @@
         <v>1</v>
       </c>
       <c r="J19" s="3">
-        <f>SUMPRODUCT(D19:I19,$D$43:$I$43)</f>
+        <f t="shared" si="0"/>
         <v>1.4</v>
       </c>
       <c r="K19" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
         <v>9</v>
@@ -1111,16 +1111,16 @@
         <v>3</v>
       </c>
       <c r="J20" s="3">
-        <f>SUMPRODUCT(D20:I20,$D$43:$I$43)</f>
+        <f t="shared" si="0"/>
         <v>1.8</v>
       </c>
       <c r="K20" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
         <v>2</v>
@@ -1144,16 +1144,16 @@
         <v>1</v>
       </c>
       <c r="J21" s="3">
-        <f>SUMPRODUCT(D21:I21,$D$43:$I$43)</f>
+        <f t="shared" si="0"/>
         <v>1.3</v>
       </c>
       <c r="K21" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
         <v>8</v>
@@ -1177,16 +1177,16 @@
         <v>1</v>
       </c>
       <c r="J22" s="3">
-        <f>SUMPRODUCT(D22:I22,$D$43:$I$43)</f>
+        <f t="shared" si="0"/>
         <v>2.1</v>
       </c>
       <c r="K22" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
         <v>7</v>
@@ -1210,16 +1210,16 @@
         <v>3</v>
       </c>
       <c r="J23" s="3">
-        <f>SUMPRODUCT(D23:I23,$D$43:$I$43)</f>
+        <f t="shared" si="0"/>
         <v>2.6000000000000005</v>
       </c>
       <c r="K23" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C24" t="s">
         <v>3</v>
@@ -1243,16 +1243,16 @@
         <v>3</v>
       </c>
       <c r="J24" s="3">
-        <f>SUMPRODUCT(D24:I24,$D$43:$I$43)</f>
+        <f t="shared" si="0"/>
         <v>2.7</v>
       </c>
       <c r="K24" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="25" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C25" t="s">
         <v>10</v>
@@ -1276,16 +1276,16 @@
         <v>3</v>
       </c>
       <c r="J25" s="3">
-        <f>SUMPRODUCT(D25:I25,$D$43:$I$43)</f>
+        <f t="shared" si="0"/>
         <v>2.5999999999999996</v>
       </c>
       <c r="K25" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="26" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C26" t="s">
         <v>5</v>
@@ -1309,16 +1309,16 @@
         <v>1</v>
       </c>
       <c r="J26" s="3">
-        <f>SUMPRODUCT(D26:I26,$D$43:$I$43)</f>
+        <f t="shared" si="0"/>
         <v>1.1000000000000001</v>
       </c>
       <c r="K26" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C27" t="s">
         <v>9</v>
@@ -1342,16 +1342,16 @@
         <v>3</v>
       </c>
       <c r="J27" s="3">
-        <f>SUMPRODUCT(D27:I27,$D$43:$I$43)</f>
+        <f t="shared" si="0"/>
         <v>2.2000000000000002</v>
       </c>
       <c r="K27" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C28" t="s">
         <v>2</v>
@@ -1375,16 +1375,16 @@
         <v>1</v>
       </c>
       <c r="J28" s="3">
-        <f>SUMPRODUCT(D28:I28,$D$43:$I$43)</f>
+        <f t="shared" si="0"/>
         <v>1.2000000000000002</v>
       </c>
       <c r="K28" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="29" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C29" t="s">
         <v>8</v>
@@ -1408,16 +1408,16 @@
         <v>2</v>
       </c>
       <c r="J29" s="3">
-        <f>SUMPRODUCT(D29:I29,$D$43:$I$43)</f>
+        <f t="shared" si="0"/>
         <v>1.7</v>
       </c>
       <c r="K29" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="30" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C30" t="s">
         <v>7</v>
@@ -1441,16 +1441,16 @@
         <v>1</v>
       </c>
       <c r="J30" s="3">
-        <f>SUMPRODUCT(D30:I30,$D$43:$I$43)</f>
+        <f t="shared" si="0"/>
         <v>1.3</v>
       </c>
       <c r="K30" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="31" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C31" t="s">
         <v>3</v>
@@ -1474,16 +1474,16 @@
         <v>3</v>
       </c>
       <c r="J31" s="3">
-        <f>SUMPRODUCT(D31:I31,$D$43:$I$43)</f>
+        <f t="shared" si="0"/>
         <v>2.4000000000000004</v>
       </c>
       <c r="K31" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="32" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C32" t="s">
         <v>10</v>
@@ -1507,16 +1507,16 @@
         <v>3</v>
       </c>
       <c r="J32" s="3">
-        <f>SUMPRODUCT(D32:I32,$D$43:$I$43)</f>
+        <f t="shared" si="0"/>
         <v>1.5000000000000002</v>
       </c>
       <c r="K32" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="33" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C33" t="s">
         <v>5</v>
@@ -1540,16 +1540,16 @@
         <v>1</v>
       </c>
       <c r="J33" s="3">
-        <f>SUMPRODUCT(D33:I33,$D$43:$I$43)</f>
+        <f t="shared" si="0"/>
         <v>1.0999999999999999</v>
       </c>
       <c r="K33" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="34" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C34" t="s">
         <v>9</v>
@@ -1573,16 +1573,16 @@
         <v>3</v>
       </c>
       <c r="J34" s="3">
-        <f>SUMPRODUCT(D34:I34,$D$43:$I$43)</f>
+        <f t="shared" si="0"/>
         <v>1.6</v>
       </c>
       <c r="K34" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="35" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C35" t="s">
         <v>2</v>
@@ -1606,16 +1606,16 @@
         <v>2</v>
       </c>
       <c r="J35" s="3">
-        <f>SUMPRODUCT(D35:I35,$D$43:$I$43)</f>
+        <f t="shared" si="0"/>
         <v>2.2000000000000006</v>
       </c>
       <c r="K35" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="36" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C36" t="s">
         <v>8</v>
@@ -1639,16 +1639,16 @@
         <v>1</v>
       </c>
       <c r="J36" s="3">
-        <f>SUMPRODUCT(D36:I36,$D$43:$I$43)</f>
+        <f t="shared" si="0"/>
         <v>1.3</v>
       </c>
       <c r="K36" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="37" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C37" t="s">
         <v>7</v>
@@ -1672,55 +1672,55 @@
         <v>2</v>
       </c>
       <c r="J37" s="3">
-        <f>SUMPRODUCT(D37:I37,$D$43:$I$43)</f>
+        <f t="shared" si="0"/>
         <v>2.4000000000000004</v>
       </c>
       <c r="K37" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="38" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="39" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="42" spans="2:11" s="4" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="7" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D42" s="7" t="str">
         <f>D9</f>
         <v>Atingimento do objetivo</v>
       </c>
       <c r="E42" s="7" t="str">
-        <f t="shared" ref="E42:J42" si="0">E9</f>
+        <f t="shared" ref="E42:J42" si="1">E9</f>
         <v>Gestão de erros</v>
       </c>
       <c r="F42" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>Comentários e prints úteis</v>
+        <f t="shared" si="1"/>
+        <v>Comentários e outputs úteis</v>
       </c>
       <c r="G42" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>Bem organizado em funções/classes</v>
+        <f t="shared" si="1"/>
+        <v>Organização e divisão do código</v>
       </c>
       <c r="H42" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>Usou algoritmos eficientes</v>
+        <f t="shared" si="1"/>
+        <v>Eficiência dos algoritmos</v>
       </c>
       <c r="I42" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>Surpreendeu positivamente em algum aspecto</v>
+        <f t="shared" si="1"/>
+        <v>Surpresas positivas</v>
       </c>
       <c r="J42" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Média ponderada</v>
       </c>
     </row>
     <row r="43" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B43" s="9"/>
       <c r="C43" s="11" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D43" s="10">
         <v>0.5</v>
@@ -1760,7 +1760,7 @@
     </row>
     <row r="45" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B45" s="5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C45" s="5" t="s">
         <v>3</v>
@@ -1770,249 +1770,249 @@
         <v>2.5</v>
       </c>
       <c r="E45" s="6">
-        <f t="shared" ref="E45:I51" si="1">AVERAGEIFS(E$10:E$40,$C$10:$C$40,$C45)</f>
+        <f t="shared" ref="E45:I51" si="2">AVERAGEIFS(E$10:E$40,$C$10:$C$40,$C45)</f>
         <v>2</v>
       </c>
       <c r="F45" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="G45" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.25</v>
       </c>
       <c r="H45" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.25</v>
       </c>
       <c r="I45" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.5</v>
       </c>
       <c r="J45" s="6">
-        <f>AVERAGEIFS(J$10:J$40,$C$10:$C$40,$C45)</f>
+        <f t="shared" ref="J45:J51" si="3">AVERAGEIFS(J$10:J$40,$C$10:$C$40,$C45)</f>
         <v>2.3500000000000005</v>
       </c>
       <c r="K45" s="4"/>
     </row>
     <row r="46" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B46" s="5" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C46" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D46" s="6">
-        <f t="shared" ref="D46:D51" si="2">AVERAGEIFS(D$10:D$40,$C$10:$C$40,$C46)</f>
+        <f t="shared" ref="D46:D51" si="4">AVERAGEIFS(D$10:D$40,$C$10:$C$40,$C46)</f>
         <v>2.25</v>
       </c>
       <c r="E46" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.75</v>
       </c>
       <c r="F46" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.5</v>
       </c>
       <c r="G46" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.5</v>
       </c>
       <c r="H46" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="I46" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="J46" s="6">
-        <f>AVERAGEIFS(J$10:J$40,$C$10:$C$40,$C46)</f>
+        <f t="shared" si="3"/>
         <v>2.1000000000000005</v>
       </c>
       <c r="K46" s="4"/>
     </row>
     <row r="47" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B47" s="5" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C47" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D47" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.75</v>
       </c>
       <c r="E47" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="F47" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.75</v>
       </c>
       <c r="G47" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.5</v>
       </c>
       <c r="H47" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.25</v>
       </c>
       <c r="I47" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.5</v>
       </c>
       <c r="J47" s="6">
-        <f>AVERAGEIFS(J$10:J$40,$C$10:$C$40,$C47)</f>
+        <f t="shared" si="3"/>
         <v>1.9750000000000001</v>
       </c>
       <c r="K47" s="4"/>
     </row>
     <row r="48" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B48" s="5" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C48" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D48" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.75</v>
       </c>
       <c r="E48" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.5</v>
       </c>
       <c r="F48" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.75</v>
       </c>
       <c r="G48" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="H48" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="I48" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.25</v>
       </c>
       <c r="J48" s="6">
-        <f>AVERAGEIFS(J$10:J$40,$C$10:$C$40,$C48)</f>
+        <f t="shared" si="3"/>
         <v>1.8250000000000002</v>
       </c>
       <c r="K48" s="4"/>
     </row>
     <row r="49" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B49" s="5" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C49" s="5" t="s">
         <v>10</v>
       </c>
       <c r="D49" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="E49" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="F49" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.25</v>
       </c>
       <c r="G49" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.75</v>
       </c>
       <c r="H49" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.25</v>
       </c>
       <c r="I49" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="J49" s="6">
-        <f>AVERAGEIFS(J$10:J$40,$C$10:$C$40,$C49)</f>
+        <f t="shared" si="3"/>
         <v>1.825</v>
       </c>
       <c r="K49" s="4"/>
     </row>
     <row r="50" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B50" s="5" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C50" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D50" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="E50" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="F50" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.25</v>
       </c>
       <c r="G50" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.5</v>
       </c>
       <c r="H50" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.75</v>
       </c>
       <c r="I50" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.25</v>
       </c>
       <c r="J50" s="6">
-        <f>AVERAGEIFS(J$10:J$40,$C$10:$C$40,$C50)</f>
+        <f t="shared" si="3"/>
         <v>1.6750000000000003</v>
       </c>
       <c r="K50" s="4"/>
     </row>
     <row r="51" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B51" s="5" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C51" s="5" t="s">
         <v>5</v>
       </c>
       <c r="D51" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.5</v>
       </c>
       <c r="E51" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.5</v>
       </c>
       <c r="F51" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.75</v>
       </c>
       <c r="G51" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="H51" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="I51" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.25</v>
       </c>
       <c r="J51" s="6">
-        <f>AVERAGEIFS(J$10:J$40,$C$10:$C$40,$C51)</f>
+        <f t="shared" si="3"/>
         <v>1.5999999999999996</v>
       </c>
       <c r="K51" s="4"/>
